--- a/data/CS1/case18_2/case18_2_2020.xlsx
+++ b/data/CS1/case18_2/case18_2_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS1\case18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD07F810-BCE6-4BFD-A3FF-ED44D8D869C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BDA439-ECC6-445F-B69D-1FDD891F974B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="2835" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27675" yWindow="3075" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -246,12 +246,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0.01</v>
+            <v>5.0000000000000001E-3</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.05</v>
+            <v>0.03</v>
           </cell>
         </row>
       </sheetData>
